--- a/4 семестр/прикладная ТВ/Книга1.xlsx
+++ b/4 семестр/прикладная ТВ/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirill/Desktop/Study/4 семестр/прикладная ТВ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC5CBF7E-814C-2842-9A6B-3E5DCDB04F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2197467-2B6D-6B4C-AFC4-3494284398DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="5" xr2:uid="{8E5D2B99-34BD-6544-BE94-4D58C0431FA1}"/>
+    <workbookView xWindow="11160" yWindow="460" windowWidth="29800" windowHeight="21220" activeTab="4" xr2:uid="{8E5D2B99-34BD-6544-BE94-4D58C0431FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Лист9" sheetId="9" r:id="rId5"/>
     <sheet name="Лист11" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4232,7 +4232,7 @@
   <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4546,7 +4546,7 @@
         <v>0.21412329840663039</v>
       </c>
       <c r="N18">
-        <f>O3/80</f>
+        <f t="shared" ref="N18:N24" si="0">O3/80</f>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="V18" s="5"/>
@@ -4568,7 +4568,7 @@
         <v>4.9840281361684902</v>
       </c>
       <c r="N19">
-        <f>O4/80</f>
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="V19" s="5"/>
@@ -4590,7 +4590,7 @@
         <v>#N/A</v>
       </c>
       <c r="N20">
-        <f>O5/80</f>
+        <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
         <v>1.9151770032147919</v>
       </c>
       <c r="N21">
-        <f>O6/80</f>
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
         <v>3.6679029536427912</v>
       </c>
       <c r="N22">
-        <f>O7/80</f>
+        <f t="shared" si="0"/>
         <v>0.13750000000000001</v>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
         <v>-0.2154413188868034</v>
       </c>
       <c r="N23">
-        <f>O8/80</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
         <v>0.50810731308734647</v>
       </c>
       <c r="N24">
-        <f>O9/80</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5307,8 +5307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F937E90-C4BD-7B49-926A-05B48C14112A}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>0.14473330091704317</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>7.8563664626562968</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>0.72306367386032699</v>
       </c>
@@ -5600,9 +5600,9 @@
         <v>13.061059032916091</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:12">
       <c r="A19">
-        <v>0.87672934561173965</v>
+        <v>0.87672934561173999</v>
       </c>
       <c r="C19">
         <v>12.317582383356562</v>
@@ -5614,7 +5614,7 @@
         <v>7.5975561028462835</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>0.70237033002058669</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>14.784596967510879</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>0.31987273499357027</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>8.9420416568464134</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>0.29268699570235457</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>9.3732308212202042</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>0.81185584828807977</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>7.8870346240000799</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>0.95261647709800346</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>8.9344519235601183</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>0.48236277293037244</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>8.8088802638230845</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>0.60485973807826765</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>8.7841738402494229</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>0.43238554765003234</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>8.0003121891058981</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>0.50398679446529726</v>
       </c>
@@ -5739,8 +5739,12 @@
       <c r="H28">
         <v>7.9526091919979081</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="L28">
+        <f>_xlfn.COVARIANCE.S(G1:G100,H1:H100)</f>
+        <v>-0.23408376229947847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>0.11304223381433887</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>8.9342904882505536</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>0.19201245310512749</v>
       </c>
@@ -5767,8 +5771,12 @@
       <c r="H30">
         <v>11.700304892437998</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="L30">
+        <f>_xlfn.COVARIANCE.P(G1:G100,H1:H100)</f>
+        <v>-0.23174292467648366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>0.20690922491139796</v>
       </c>
@@ -5782,7 +5790,7 @@
         <v>10.522863956575748</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>0.38991381294100269</v>
       </c>
@@ -5794,6 +5802,10 @@
       </c>
       <c r="H32">
         <v>10.704080775904004</v>
+      </c>
+      <c r="L32">
+        <f>STDEV( G1:G100,H1:H100)</f>
+        <v>2.0888835101729275</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6757,7 +6769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1075A435-E252-8F41-AE80-35D2561CB30A}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
